--- a/results/I3_N5_M2_T15_C100_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1853.131386708248</v>
+        <v>1096.161735616771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1830000877380371</v>
+        <v>0.2239999771118164</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.380784773767239</v>
+        <v>10.7560456433096</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.350287346831242</v>
+        <v>9.495897126050805</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1629.070000001154</v>
+        <v>611.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>203.67</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,17 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -863,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.05123405644782</v>
+        <v>5.764833041814828</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>9.816067098262664</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.435282324495433</v>
+        <v>7.380784773767221</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.145609779219558</v>
+        <v>7.469028148887723</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,10 +968,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -974,12 +985,26 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1510000000088</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>196.7560000000688</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>51.12200000000669</v>
+        <v>152.2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.3950000000315</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999825</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>166.1510000000293</v>
+        <v>152.2</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>196.7560000000868</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>66.15100000002877</v>
+        <v>52.19999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>96.75600000008659</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3">
@@ -1220,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1231,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1319,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1305,7 +1330,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1316,7 +1341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
